--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_MINLP_Opt_problem_Dual_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_MINLP_Opt_problem_Dual_Variables.xlsx
@@ -1,38 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V_limits_con" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Slack_con" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="P_gen_min_con" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="P_gen_max_con" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Q_gen_min_con" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q_gen_max_con" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="P_bal_con" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Q_bal_con" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +52,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +427,3465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.690910453012427</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.488683562827043e-09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.807541351857117e-09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.308923436978463e-08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.782678256190256e-08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.37949451684026e-08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.798205491978393e-08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.484073269929154e-08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.628303628271814e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.101255557863504e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.368229969935466e-08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.873306391568816e-08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.066576546399096e-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.2160976396103e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.329053140311007e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.457603308054834e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.694928900326251e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.780204272130645e-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.754322158252945e-09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.563025591568954e-09</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.922008596866705e-09</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.247826059735272e-09</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.080906007045556e-08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.479594466354386e-08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.694977381500721e-08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.604590603486364e-08</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.929864647207127e-08</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.923168121787487e-08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.388048476404443e-08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.000892432552284e-07</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.271155577815285e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.348266600798931e-07</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.373869556749093e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Slack_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.08197773366417e-14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.396381829890889e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05431889995206579</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1308868510918035</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1291874385223694</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1282708095794831</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1272630806120364</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1271767521044676</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1269749364776808</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.126788356770652</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1266473908721182</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1266263271490333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1265819072141725</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1264774097365574</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1264437313564988</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1264199085382994</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.126397832522199</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1263703965170961</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1263616571981103</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1165593085271375</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1360838934410892</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1182564844644089</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1359922645029117</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1299494109891886</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1288365805091931</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1284578865627216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1271902838618424</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1271021736639904</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.126843394564402</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1266992600093174</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1266344508265177</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1265549931051432</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1265172207370696</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1265356956320465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.119950406495491e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.5333867408159185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.921514876575827</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.157863271684761</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.400131839508819</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.102578191543044</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.468646153890738</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9.471178874293484</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-10.63902751828355</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.735136378048</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.91886756786672</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12.24169252231007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.40435768875468</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-13.79370233225725</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-14.08162783213572</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-14.36265292993744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-14.72593787823938</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-14.84558380932089</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.6708234169461618</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.210923924059415</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.288239178496881</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.388579487694535</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.498245973984873</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.551300607147189</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.084381943427911</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-8.409062630218219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-8.813052803914802</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-10.26527289418724</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-11.30580976178944</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-11.84724054888302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-12.58659186829732</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-12.74133781078675</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-12.78041353558175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.015154508917141e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1599511419115497</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1341237167445128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.131493662985244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1297432882863754</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1281536620254236</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1550064708492292</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1278450699629603</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.127639865237612</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1274697984912526</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1274431314201761</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1273991926303107</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1272581461231698</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1272169242192025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1271938395553519</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1271699563248188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1271378193841956</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1271263876078585</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1555266144768184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1419292087927105</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1362729778584827</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1407923585821065</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.132929961503677</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1314379926164126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1327963077619531</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1280026811630103</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1278190737726685</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1272992504855527</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1270277996550297</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1269030752425761</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1268441397940192</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1268319521419382</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1268280496174067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.312531632004885e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4548700206065051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.897235561032817</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.764524202237838</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.642999563910673</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.610897549071263</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.830232680239915</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.273954461143171</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.820724463751906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-7.344418302207642</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-7.434031451616326</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-7.586637518896934</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-8.122736036369176</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-8.294361927549453</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-8.391295896570179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.49896502198466</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-8.644991771997505</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-8.698184109963927</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.4840894803857205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.7029302097069799</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.7396350450947585</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7809026588973638</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.177945587737686</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.68144539655834</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.937331564087445</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.919773105687327</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.343959562755372</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.95878059667224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.186059793452294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-9.888905085068947</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-10.26039664681594</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-10.34073450549288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-10.36677636335667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.276431423395398e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4790678408638527</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.790628025484024</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.02867583316239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.271861029929336</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.975315110931008</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.34146940178627</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.344203937815802</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.5122391615129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.60848898717588</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.79224124071768</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.1151106150959</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.27788027901812</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.66725860090075</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.95520792359742</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.23625509741524</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.59956748172228</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.71922215212279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5542641084190243</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.074840030618325</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.169982694032472</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.252587223191623</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.368296562995685</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.422464026637995</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.95592405686519</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.281872346356378</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.685950630250813</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.13842949962284</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.17911050178013</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11.7206060980565</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12.46003687519218</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.61482059004969</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.6538778399497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.297377123087744e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2949188786949553</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.763111844288304</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.633030539252594</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.513256275624297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.482743887045839</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.675226209390685</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.146109391180211</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.693084598514294</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.21694850371639</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.30658832019615</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.459238326266624</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.995477890246006</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.167145003330251</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.264102057014826</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.371795065659841</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.517853952613308</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.57105772235607</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3285628659089021</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5610010009142694</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6033620672362758</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6401103003152573</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.045015626234009</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.550007403941927</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.804535256325491</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.791770424524318</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.216140488982703</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.831481346186687</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.059031993797266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.762002009826372</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.13355250702192</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.21390255335094</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.23994831373927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_MINLP_Opt_problem_Dual_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_MINLP_Opt_problem_Dual_Variables.xlsx
@@ -13,8 +13,9 @@
     <sheet name="P_gen_max_con" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Q_gen_min_con" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Q_gen_max_con" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="P_bal_con" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Q_bal_con" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="I_loading_con" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="P_bal_con" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Q_bal_con" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.690910453012427</v>
+        <v>-4.690910443294938</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.488683562827043e-09</v>
+        <v>1.488683584140906e-09</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.807541351857117e-09</v>
+        <v>8.807541417270247e-09</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.308923436978463e-08</v>
+        <v>1.308923446596083e-08</v>
       </c>
     </row>
     <row r="6">
@@ -519,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.782678256190256e-08</v>
+        <v>1.782678269573788e-08</v>
       </c>
     </row>
     <row r="7">
@@ -532,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3.37949451684026e-08</v>
+        <v>3.379494553329918e-08</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.798205491978393e-08</v>
+        <v>3.798205547482544e-08</v>
       </c>
     </row>
     <row r="9">
@@ -558,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4.484073269929154e-08</v>
+        <v>4.484073338081586e-08</v>
       </c>
     </row>
     <row r="10">
@@ -571,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>5.628303628271814e-08</v>
+        <v>5.628303721485875e-08</v>
       </c>
     </row>
     <row r="11">
@@ -584,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>7.101255557863504e-08</v>
+        <v>7.101255690474226e-08</v>
       </c>
     </row>
     <row r="12">
@@ -597,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>7.368229969935466e-08</v>
+        <v>7.368230110532854e-08</v>
       </c>
     </row>
     <row r="13">
@@ -610,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>7.873306391568816e-08</v>
+        <v>7.873306547980695e-08</v>
       </c>
     </row>
     <row r="14">
@@ -623,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>1.066576546399096e-07</v>
+        <v>1.066576572494854e-07</v>
       </c>
     </row>
     <row r="15">
@@ -636,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>1.2160976396103e-07</v>
+        <v>1.216097672467892e-07</v>
       </c>
     </row>
     <row r="16">
@@ -649,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>1.329053140311007e-07</v>
+        <v>1.329053178813462e-07</v>
       </c>
     </row>
     <row r="17">
@@ -662,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>1.457603308054834e-07</v>
+        <v>1.457603353551402e-07</v>
       </c>
     </row>
     <row r="18">
@@ -675,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>1.694928900326251e-07</v>
+        <v>1.694928960311449e-07</v>
       </c>
     </row>
     <row r="19">
@@ -688,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>1.780204272130645e-07</v>
+        <v>1.780204337819871e-07</v>
       </c>
     </row>
     <row r="20">
@@ -701,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>1.754322158252945e-09</v>
+        <v>1.754322237119138e-09</v>
       </c>
     </row>
     <row r="21">
@@ -714,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>3.563025591568954e-09</v>
+        <v>3.563026131888008e-09</v>
       </c>
     </row>
     <row r="22">
@@ -727,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>3.922008596866705e-09</v>
+        <v>3.922009238983513e-09</v>
       </c>
     </row>
     <row r="23">
@@ -740,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>4.247826059735272e-09</v>
+        <v>4.247826786180053e-09</v>
       </c>
     </row>
     <row r="24">
@@ -753,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>1.080906007045556e-08</v>
+        <v>1.080906015197761e-08</v>
       </c>
     </row>
     <row r="25">
@@ -766,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>1.479594466354386e-08</v>
+        <v>1.47959447819265e-08</v>
       </c>
     </row>
     <row r="26">
@@ -779,7 +780,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>1.694977381500721e-08</v>
+        <v>1.694977396797487e-08</v>
       </c>
     </row>
     <row r="27">
@@ -792,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>3.604590603486364e-08</v>
+        <v>3.604590642655358e-08</v>
       </c>
     </row>
     <row r="28">
@@ -805,7 +806,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>3.929864647207127e-08</v>
+        <v>3.929864690509559e-08</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +819,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>5.923168121787487e-08</v>
+        <v>5.923168197012682e-08</v>
       </c>
     </row>
     <row r="30">
@@ -831,7 +832,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>8.388048476404443e-08</v>
+        <v>8.388048606271545e-08</v>
       </c>
     </row>
     <row r="31">
@@ -844,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>1.000892432552284e-07</v>
+        <v>1.000892450024982e-07</v>
       </c>
     </row>
     <row r="32">
@@ -857,7 +858,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>1.271155577815285e-07</v>
+        <v>1.271155604313545e-07</v>
       </c>
     </row>
     <row r="33">
@@ -870,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>1.348266600798931e-07</v>
+        <v>1.348266630222255e-07</v>
       </c>
     </row>
     <row r="34">
@@ -883,7 +884,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>1.373869556749093e-07</v>
+        <v>1.373869587187282e-07</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.08197773366417e-14</v>
+        <v>-1.202395073371513e-13</v>
       </c>
     </row>
     <row r="3">
@@ -1141,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.396381829890889e-09</v>
+        <v>6.396381804562851e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1154,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05431889995206579</v>
+        <v>0.1548847667313608</v>
       </c>
     </row>
     <row r="4">
@@ -1167,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1308868510918035</v>
+        <v>0.1309094560892268</v>
       </c>
     </row>
     <row r="5">
@@ -1180,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1291874385223694</v>
+        <v>0.1291881248741792</v>
       </c>
     </row>
     <row r="6">
@@ -1193,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1282708095794831</v>
+        <v>0.1282713611371582</v>
       </c>
     </row>
     <row r="7">
@@ -1206,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1272630806120364</v>
+        <v>0.1272631264102358</v>
       </c>
     </row>
     <row r="8">
@@ -1219,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1271767521044676</v>
+        <v>0.127176781866071</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1269749364776808</v>
+        <v>0.1269749422674755</v>
       </c>
     </row>
     <row r="10">
@@ -1245,7 +1246,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.126788356770652</v>
+        <v>0.1267883567268984</v>
       </c>
     </row>
     <row r="11">
@@ -1258,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1266473908721182</v>
+        <v>0.1266473826678162</v>
       </c>
     </row>
     <row r="12">
@@ -1271,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1266263271490333</v>
+        <v>0.1266263167715251</v>
       </c>
     </row>
     <row r="13">
@@ -1284,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1265819072141725</v>
+        <v>0.1265908494286789</v>
       </c>
     </row>
     <row r="14">
@@ -1297,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1264774097365574</v>
+        <v>0.1264774061441808</v>
       </c>
     </row>
     <row r="15">
@@ -1310,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1264437313564988</v>
+        <v>0.1264437303691099</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1264199085382994</v>
+        <v>0.1264200351999279</v>
       </c>
     </row>
     <row r="17">
@@ -1336,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.126397832522199</v>
+        <v>0.1263978321358566</v>
       </c>
     </row>
     <row r="18">
@@ -1349,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1263703965170961</v>
+        <v>0.1263703965177544</v>
       </c>
     </row>
     <row r="19">
@@ -1362,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1263616571981103</v>
+        <v>0.1263616571835028</v>
       </c>
     </row>
     <row r="20">
@@ -1375,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1165593085271375</v>
+        <v>0.15230298861146</v>
       </c>
     </row>
     <row r="21">
@@ -1388,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1360838934410892</v>
+        <v>0.1397077048846123</v>
       </c>
     </row>
     <row r="22">
@@ -1401,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1182564844644089</v>
+        <v>0.1385627698634409</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1415,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1359922645029117</v>
+        <v>0.1377053864982247</v>
       </c>
     </row>
     <row r="24">
@@ -1427,7 +1428,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1299494109891886</v>
+        <v>0.1299489165904829</v>
       </c>
     </row>
     <row r="25">
@@ -1440,7 +1441,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1288365805091931</v>
+        <v>0.128842137470215</v>
       </c>
     </row>
     <row r="26">
@@ -1453,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1284578865627216</v>
+        <v>0.1284608560599796</v>
       </c>
     </row>
     <row r="27">
@@ -1466,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1271902838618424</v>
+        <v>0.1271903158752617</v>
       </c>
     </row>
     <row r="28">
@@ -1479,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1271021736639904</v>
+        <v>0.1271021899067285</v>
       </c>
     </row>
     <row r="29">
@@ -1492,7 +1493,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.126843394564402</v>
+        <v>0.1268433945658093</v>
       </c>
     </row>
     <row r="30">
@@ -1505,7 +1506,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1266992600093174</v>
+        <v>0.1266993066987544</v>
       </c>
     </row>
     <row r="31">
@@ -1518,7 +1519,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1266344508265177</v>
+        <v>0.1266344507020842</v>
       </c>
     </row>
     <row r="32">
@@ -1531,7 +1532,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1265549931051432</v>
+        <v>0.126554989224551</v>
       </c>
     </row>
     <row r="33">
@@ -1544,7 +1545,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1265172207370696</v>
+        <v>0.1265395344219397</v>
       </c>
     </row>
     <row r="34">
@@ -1557,7 +1558,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1265356956320465</v>
+        <v>0.1265356943660078</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.119950406495491e-09</v>
+        <v>-4.119950417003425e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1619,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5333867408159185</v>
+        <v>-0.6339526006251947</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.921514876575827</v>
+        <v>-2.921537474185495</v>
       </c>
     </row>
     <row r="5">
@@ -1645,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.157863271684761</v>
+        <v>-4.157863950430834</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.400131839508819</v>
+        <v>-5.400132383238849</v>
       </c>
     </row>
     <row r="7">
@@ -1671,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.102578191543044</v>
+        <v>-8.102578228991453</v>
       </c>
     </row>
     <row r="8">
@@ -1684,7 +1685,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.468646153890738</v>
+        <v>-8.468646175213497</v>
       </c>
     </row>
     <row r="9">
@@ -1697,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.471178874293484</v>
+        <v>-9.471178871472155</v>
       </c>
     </row>
     <row r="10">
@@ -1710,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.63902751828355</v>
+        <v>-10.6390275094144</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1724,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.735136378048</v>
+        <v>-11.7351363608159</v>
       </c>
     </row>
     <row r="12">
@@ -1736,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.91886756786672</v>
+        <v>-11.91886754842912</v>
       </c>
     </row>
     <row r="13">
@@ -1749,7 +1750,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.24169252231007</v>
+        <v>-12.24170145540772</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.40435768875468</v>
+        <v>-13.40435767582694</v>
       </c>
     </row>
     <row r="15">
@@ -1775,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.79370233225725</v>
+        <v>-13.79370232185605</v>
       </c>
     </row>
     <row r="16">
@@ -1788,7 +1789,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.08162783213572</v>
+        <v>-14.08162794932826</v>
       </c>
     </row>
     <row r="17">
@@ -1801,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.36265292993744</v>
+        <v>-14.36265292002905</v>
       </c>
     </row>
     <row r="18">
@@ -1814,7 +1815,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.72593787823938</v>
+        <v>-14.7259378686441</v>
       </c>
     </row>
     <row r="19">
@@ -1827,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-14.84558380932089</v>
+        <v>-14.84558379968756</v>
       </c>
     </row>
     <row r="20">
@@ -1840,7 +1841,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6708234169461618</v>
+        <v>-0.7065670864178187</v>
       </c>
     </row>
     <row r="21">
@@ -1853,7 +1854,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.210923924059415</v>
+        <v>-1.214547715970082</v>
       </c>
     </row>
     <row r="22">
@@ -1866,7 +1867,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.288239178496881</v>
+        <v>-1.308545442284708</v>
       </c>
     </row>
     <row r="23">
@@ -1879,7 +1880,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.388579487694535</v>
+        <v>-1.390292587730846</v>
       </c>
     </row>
     <row r="24">
@@ -1892,7 +1893,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.498245973984873</v>
+        <v>-3.498245472082757</v>
       </c>
     </row>
     <row r="25">
@@ -1905,7 +1906,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.551300607147189</v>
+        <v>-4.551306156388129</v>
       </c>
     </row>
     <row r="26">
@@ -1918,7 +1919,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.084381943427911</v>
+        <v>-5.084384905095907</v>
       </c>
     </row>
     <row r="27">
@@ -1931,7 +1932,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.409062630218219</v>
+        <v>-8.409062653824483</v>
       </c>
     </row>
     <row r="28">
@@ -1944,7 +1945,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-8.813052803914802</v>
+        <v>-8.813052811674471</v>
       </c>
     </row>
     <row r="29">
@@ -1957,7 +1958,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.26527289418724</v>
+        <v>-10.26527288541588</v>
       </c>
     </row>
     <row r="30">
@@ -1970,7 +1971,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.30580976178944</v>
+        <v>-11.3058097994968</v>
       </c>
     </row>
     <row r="31">
@@ -1983,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-11.84724054888302</v>
+        <v>-11.84724053967262</v>
       </c>
     </row>
     <row r="32">
@@ -1996,7 +1997,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.58659186829732</v>
+        <v>-12.58659185517766</v>
       </c>
     </row>
     <row r="33">
@@ -2009,7 +2010,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-12.74133781078675</v>
+        <v>-12.74136011519956</v>
       </c>
     </row>
     <row r="34">
@@ -2022,7 +2023,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.78041353558175</v>
+        <v>-12.78041352503496</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.015154508917141e-09</v>
+        <v>2.015154490400304e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2084,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1599511419115497</v>
+        <v>0.1713381107986954</v>
       </c>
     </row>
     <row r="4">
@@ -2097,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1341237167445128</v>
+        <v>0.1646293795761071</v>
       </c>
     </row>
     <row r="5">
@@ -2110,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131493662985244</v>
+        <v>0.1312730512092959</v>
       </c>
     </row>
     <row r="6">
@@ -2123,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1297432882863754</v>
+        <v>0.1297579793908322</v>
       </c>
     </row>
     <row r="7">
@@ -2136,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1281536620254236</v>
+        <v>0.1281570099202661</v>
       </c>
     </row>
     <row r="8">
@@ -2149,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1550064708492292</v>
+        <v>0.1280600434844344</v>
       </c>
     </row>
     <row r="9">
@@ -2162,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1278450699629603</v>
+        <v>0.1278483968919601</v>
       </c>
     </row>
     <row r="10">
@@ -2175,7 +2176,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.127639865237612</v>
+        <v>0.1276398941920774</v>
       </c>
     </row>
     <row r="11">
@@ -2188,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1274697984912526</v>
+        <v>0.1274698024300897</v>
       </c>
     </row>
     <row r="12">
@@ -2201,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1274431314201761</v>
+        <v>0.1274431391402702</v>
       </c>
     </row>
     <row r="13">
@@ -2214,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1273991926303107</v>
+        <v>0.1273992071098467</v>
       </c>
     </row>
     <row r="14">
@@ -2227,7 +2228,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1272581461231698</v>
+        <v>0.1272581661288383</v>
       </c>
     </row>
     <row r="15">
@@ -2240,7 +2241,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1272169242192025</v>
+        <v>0.1272169252426</v>
       </c>
     </row>
     <row r="16">
@@ -2253,7 +2254,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1271938395553519</v>
+        <v>0.1271943891169205</v>
       </c>
     </row>
     <row r="17">
@@ -2266,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1271699563248188</v>
+        <v>0.127169969073421</v>
       </c>
     </row>
     <row r="18">
@@ -2279,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1271378193841956</v>
+        <v>0.1271378353404484</v>
       </c>
     </row>
     <row r="19">
@@ -2292,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1271263876078585</v>
+        <v>0.1271264021758648</v>
       </c>
     </row>
     <row r="20">
@@ -2305,7 +2306,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1555266144768184</v>
+        <v>0.1675763395880952</v>
       </c>
     </row>
     <row r="21">
@@ -2318,7 +2319,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1419292087927105</v>
+        <v>0.1520070033382697</v>
       </c>
     </row>
     <row r="22">
@@ -2331,7 +2332,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1362729778584827</v>
+        <v>0.1502796131187216</v>
       </c>
     </row>
     <row r="23">
@@ -2344,7 +2345,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1407923585821065</v>
+        <v>0.1492608576267713</v>
       </c>
     </row>
     <row r="24">
@@ -2357,7 +2358,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.132929961503677</v>
+        <v>0.1329662968102996</v>
       </c>
     </row>
     <row r="25">
@@ -2370,7 +2371,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1314379926164126</v>
+        <v>0.1314367939329726</v>
       </c>
     </row>
     <row r="26">
@@ -2383,7 +2384,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1327963077619531</v>
+        <v>0.1308817264484108</v>
       </c>
     </row>
     <row r="27">
@@ -2396,7 +2397,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1280026811630103</v>
+        <v>0.1280044603406706</v>
       </c>
     </row>
     <row r="28">
@@ -2409,7 +2410,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1278190737726685</v>
+        <v>0.1278196584625835</v>
       </c>
     </row>
     <row r="29">
@@ -2422,7 +2423,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1272992504855527</v>
+        <v>0.1272992516233471</v>
       </c>
     </row>
     <row r="30">
@@ -2435,7 +2436,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1270277996550297</v>
+        <v>0.1270278001520784</v>
       </c>
     </row>
     <row r="31">
@@ -2448,7 +2449,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1269030752425761</v>
+        <v>0.1269030752456091</v>
       </c>
     </row>
     <row r="32">
@@ -2461,7 +2462,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1268441397940192</v>
+        <v>0.1268441394504117</v>
       </c>
     </row>
     <row r="33">
@@ -2474,7 +2475,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1268319521419382</v>
+        <v>0.1268319578640165</v>
       </c>
     </row>
     <row r="34">
@@ -2487,7 +2488,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1268280496174067</v>
+        <v>0.1268280501679962</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.312531632004885e-09</v>
+        <v>-3.3125316820389e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2549,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4548700206065051</v>
+        <v>-0.4662569861567061</v>
       </c>
     </row>
     <row r="4">
@@ -2562,7 +2563,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.897235561032817</v>
+        <v>-1.927741218752214</v>
       </c>
     </row>
     <row r="5">
@@ -2575,7 +2576,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.764524202237838</v>
+        <v>-2.76430358567711</v>
       </c>
     </row>
     <row r="6">
@@ -2588,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.642999563910673</v>
+        <v>-3.643014250581803</v>
       </c>
     </row>
     <row r="7">
@@ -2601,7 +2602,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.610897549071263</v>
+        <v>-5.610900893324473</v>
       </c>
     </row>
     <row r="8">
@@ -2614,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.830232680239915</v>
+        <v>-5.803286249499917</v>
       </c>
     </row>
     <row r="9">
@@ -2627,7 +2628,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.273954461143171</v>
+        <v>-6.273957784615997</v>
       </c>
     </row>
     <row r="10">
@@ -2640,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.820724463751906</v>
+        <v>-6.820724489149201</v>
       </c>
     </row>
     <row r="11">
@@ -2653,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.344418302207642</v>
+        <v>-7.344418302492186</v>
       </c>
     </row>
     <row r="12">
@@ -2666,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.434031451616326</v>
+        <v>-7.43403145566637</v>
       </c>
     </row>
     <row r="13">
@@ -2679,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.586637518896934</v>
+        <v>-7.586637529679538</v>
       </c>
     </row>
     <row r="14">
@@ -2692,7 +2693,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.122736036369176</v>
+        <v>-8.122736052576386</v>
       </c>
     </row>
     <row r="15">
@@ -2705,7 +2706,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.294361927549453</v>
+        <v>-8.294361924739588</v>
       </c>
     </row>
     <row r="16">
@@ -2718,7 +2719,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-8.391295896570179</v>
+        <v>-8.391296442279746</v>
       </c>
     </row>
     <row r="17">
@@ -2731,7 +2732,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.49896502198466</v>
+        <v>-8.498965030860978</v>
       </c>
     </row>
     <row r="18">
@@ -2744,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.644991771997505</v>
+        <v>-8.644991784051822</v>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2758,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.698184109963927</v>
+        <v>-8.698184120619905</v>
       </c>
     </row>
     <row r="20">
@@ -2770,7 +2771,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4840894803857205</v>
+        <v>-0.4961391983426915</v>
       </c>
     </row>
     <row r="21">
@@ -2783,7 +2784,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7029302097069799</v>
+        <v>-0.7130079759502813</v>
       </c>
     </row>
     <row r="22">
@@ -2796,7 +2797,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7396350450947585</v>
+        <v>-0.7536416481555456</v>
       </c>
     </row>
     <row r="23">
@@ -2809,7 +2810,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7809026588973638</v>
+        <v>-0.7893711232711281</v>
       </c>
     </row>
     <row r="24">
@@ -2822,7 +2823,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.177945587737686</v>
+        <v>-2.177981917957133</v>
       </c>
     </row>
     <row r="25">
@@ -2835,7 +2836,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.68144539655834</v>
+        <v>-2.681444192854212</v>
       </c>
     </row>
     <row r="26">
@@ -2848,7 +2849,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.937331564087445</v>
+        <v>-2.935416977874107</v>
       </c>
     </row>
     <row r="27">
@@ -2861,7 +2862,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.919773105687327</v>
+        <v>-5.919774881166286</v>
       </c>
     </row>
     <row r="28">
@@ -2874,7 +2875,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.343959562755372</v>
+        <v>-6.343960143667984</v>
       </c>
     </row>
     <row r="29">
@@ -2887,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.95878059667224</v>
+        <v>-7.958780593712624</v>
       </c>
     </row>
     <row r="30">
@@ -2900,7 +2901,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-9.186059793452294</v>
+        <v>-9.186059789606338</v>
       </c>
     </row>
     <row r="31">
@@ -2913,7 +2914,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.888905085068947</v>
+        <v>-9.888905080594823</v>
       </c>
     </row>
     <row r="32">
@@ -2926,7 +2927,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-10.26039664681594</v>
+        <v>-10.26039664191836</v>
       </c>
     </row>
     <row r="33">
@@ -2939,7 +2940,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-10.34073450549288</v>
+        <v>-10.34073450664401</v>
       </c>
     </row>
     <row r="34">
@@ -2952,7 +2953,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>-10.36677636335667</v>
+        <v>-10.36677635933058</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2982,7 +2983,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Buses</t>
+          <t>Index: Lines</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2994,430 +2995,482 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.276431423395398e-09</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4790678408638527</v>
+        <v>2.505903559159053e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.790628025484024</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.02867583316239</v>
+        <v>2.505903559158936e-14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.271861029929336</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>7.975315110931008</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>8.34146940178627</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.344203937815802</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>10.5122391615129</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>11.60848898717588</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>11.79224124071768</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>12.1151106150959</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>13.27788027901812</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>13.66725860090075</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>13.95520792359742</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>14.23625509741524</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>14.59956748172228</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>14.71922215212279</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5542641084190243</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>1.074840030618325</v>
+        <v>2.5059035591589e-14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>1.169982694032472</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>1.252587223191623</v>
+        <v>2.505903559159099e-14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>3.368296562995685</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>4.422464026637995</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>4.95592405686519</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>8.281872346356378</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>8.685950630250813</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>10.13842949962284</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>11.17911050178013</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>11.7206060980565</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>12.46003687519218</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>12.61482059004969</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>12.6538778399497</v>
+        <v>2.505903559158897e-14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>I_loading_con</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.505903559158897e-14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>I_loading_con</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.505903559158897e-14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>I_loading_con</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.505903559158897e-14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>I_loading_con</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
   </sheetData>
@@ -3459,430 +3512,895 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.297377123087744e-09</v>
+        <v>-2.276431387559425e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2949188786949553</v>
+        <v>0.4790678338938339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.763111844288304</v>
+        <v>2.790628018096268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.633030539252594</v>
+        <v>4.028675825556655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.513256275624297</v>
+        <v>5.271861022101691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5.482743887045839</v>
+        <v>7.975315102581217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5.675226209390685</v>
+        <v>8.341469393347426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6.146109391180211</v>
+        <v>9.34420392920468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>6.693084598514294</v>
+        <v>10.5122391526875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>7.21694850371639</v>
+        <v>11.60848897814809</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>7.30658832019615</v>
+        <v>11.7922412316576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>7.459238326266624</v>
+        <v>12.11511060597904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>7.995477890246006</v>
+        <v>13.27788026968276</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>8.167145003330251</v>
+        <v>13.66725859148694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>8.264102057014826</v>
+        <v>13.95520791412834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>8.371795065659841</v>
+        <v>14.23625508789319</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>8.517853952613308</v>
+        <v>14.59956747212635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>8.57105772235607</v>
+        <v>14.71922214250406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3285628659089021</v>
+        <v>0.5542640978063588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5610010009142694</v>
+        <v>1.07484001108547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6033620672362758</v>
+        <v>1.169982672421267</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6401103003152573</v>
+        <v>1.252587201232621</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>2.045015626234009</v>
+        <v>3.368296555492274</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>2.550007403941927</v>
+        <v>4.422464018917915</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>2.804535256325491</v>
+        <v>4.955924049035927</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>5.791770424524318</v>
+        <v>8.281872337949222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>6.216140488982703</v>
+        <v>8.685950621767743</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>7.831481346186687</v>
+        <v>10.13842949085007</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.059031993797266</v>
+        <v>11.17911049279805</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.762002009826372</v>
+        <v>11.72060608897054</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>10.13355250702192</v>
+        <v>12.46003686595311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>10.21390255335094</v>
+        <v>12.61482058077762</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>10.23994831373927</v>
+        <v>12.65387783066895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.297377191638596e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2949188753580106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.763111839176107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.633030534467814</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.513256271190971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.482743883404207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.675226206015482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.146109387724038</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.693084594957123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.216948500062096</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.3065883165261</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.459238322569692</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.995477886447547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.167144999496989</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.264102053162825</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.371795061787559</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.517853948711373</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.57105771844404</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3285628587545963</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5610009726120117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6033620350368238</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6401102656443568</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.045015621146834</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.55000739892124</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.804535251425696</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.791770420825615</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.216140485205401</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.831481342089277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.059031989454258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.762002005349212</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.13355250246795</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.21390254877999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.23994830916258</v>
       </c>
     </row>
   </sheetData>

--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_MINLP_Opt_problem_Dual_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_MINLP_Opt_problem_Dual_Variables.xlsx
@@ -1,14 +1,43 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Constraint_list" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Line_Status_con" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="P_bal_con" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q_bal_con" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="P_gen_min_con" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="P_gen_max_con" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Q_gen_min_con" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Q_gen_max_con" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="V_limits_con" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Slack_con" sheetId="12" state="visible" r:id="rId12"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +56,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +428,4658 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Gens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Slack_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Lines</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Lines</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Line_Status_con</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Gens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Gens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Gens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>